--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt4-Fzd6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.223867666666667</v>
+        <v>0.7368846666666666</v>
       </c>
       <c r="H2">
-        <v>3.671603</v>
+        <v>2.210654</v>
       </c>
       <c r="I2">
-        <v>0.2362882870487179</v>
+        <v>0.1365512798651915</v>
       </c>
       <c r="J2">
-        <v>0.2492245847267187</v>
+        <v>0.1426235012188444</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.67754233333333</v>
+        <v>12.36292333333333</v>
       </c>
       <c r="N2">
-        <v>50.03262699999999</v>
+        <v>37.08877</v>
       </c>
       <c r="O2">
-        <v>0.9535192900707901</v>
+        <v>0.918273862214392</v>
       </c>
       <c r="P2">
-        <v>0.9578676752791928</v>
+        <v>0.9303794466068031</v>
       </c>
       <c r="Q2">
-        <v>20.41110482123122</v>
+        <v>9.110048639508888</v>
       </c>
       <c r="R2">
-        <v>183.699943391081</v>
+        <v>81.99043775557999</v>
       </c>
       <c r="S2">
-        <v>0.2253054397187365</v>
+        <v>0.1253914711521277</v>
       </c>
       <c r="T2">
-        <v>0.2387241735946042</v>
+        <v>0.1326939741371131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.223867666666667</v>
+        <v>0.7368846666666666</v>
       </c>
       <c r="H3">
-        <v>3.671603</v>
+        <v>2.210654</v>
       </c>
       <c r="I3">
-        <v>0.2362882870487179</v>
+        <v>0.1365512798651915</v>
       </c>
       <c r="J3">
-        <v>0.2492245847267187</v>
+        <v>0.1426235012188444</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.724307</v>
       </c>
       <c r="O3">
-        <v>0.0328617561197435</v>
+        <v>0.04269179184247177</v>
       </c>
       <c r="P3">
-        <v>0.03301161735036698</v>
+        <v>0.04325459680761149</v>
       </c>
       <c r="Q3">
-        <v>0.7034411949023334</v>
+        <v>0.4235384629753333</v>
       </c>
       <c r="R3">
-        <v>6.330970754120999</v>
+        <v>3.811846166778</v>
       </c>
       <c r="S3">
-        <v>0.007764848062946913</v>
+        <v>0.00582961881582786</v>
       </c>
       <c r="T3">
-        <v>0.008227306625302551</v>
+        <v>0.006169122040510999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.223867666666667</v>
+        <v>0.7368846666666666</v>
       </c>
       <c r="H4">
-        <v>3.671603</v>
+        <v>2.210654</v>
       </c>
       <c r="I4">
-        <v>0.2362882870487179</v>
+        <v>0.1365512798651915</v>
       </c>
       <c r="J4">
-        <v>0.2492245847267187</v>
+        <v>0.1426235012188444</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2382025</v>
+        <v>0.525528</v>
       </c>
       <c r="N4">
-        <v>0.476405</v>
+        <v>1.051056</v>
       </c>
       <c r="O4">
-        <v>0.01361895380946642</v>
+        <v>0.03903434594313629</v>
       </c>
       <c r="P4">
-        <v>0.009120707370440172</v>
+        <v>0.02636595658558534</v>
       </c>
       <c r="Q4">
-        <v>0.2915283378691667</v>
+        <v>0.387253525104</v>
       </c>
       <c r="R4">
-        <v>1.749170027215</v>
+        <v>2.323521150624</v>
       </c>
       <c r="S4">
-        <v>0.00321799926703443</v>
+        <v>0.005330189897235904</v>
       </c>
       <c r="T4">
-        <v>0.002273104506811874</v>
+        <v>0.003760405041220229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>2.775692</v>
       </c>
       <c r="I5">
-        <v>0.178631379278977</v>
+        <v>0.171453468119196</v>
       </c>
       <c r="J5">
-        <v>0.1884110798551137</v>
+        <v>0.1790777350707694</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.67754233333333</v>
+        <v>12.36292333333333</v>
       </c>
       <c r="N5">
-        <v>50.03262699999999</v>
+        <v>37.08877</v>
       </c>
       <c r="O5">
-        <v>0.9535192900707901</v>
+        <v>0.918273862214392</v>
       </c>
       <c r="P5">
-        <v>0.9578676752791928</v>
+        <v>0.9303794466068031</v>
       </c>
       <c r="Q5">
-        <v>15.43057361143155</v>
+        <v>11.43855579764889</v>
       </c>
       <c r="R5">
-        <v>138.875162502884</v>
+        <v>102.94700217884</v>
       </c>
       <c r="S5">
-        <v>0.1703284659544562</v>
+        <v>0.1574412383598662</v>
       </c>
       <c r="T5">
-        <v>0.1804728830576601</v>
+        <v>0.1666102440547421</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>2.775692</v>
       </c>
       <c r="I6">
-        <v>0.178631379278977</v>
+        <v>0.171453468119196</v>
       </c>
       <c r="J6">
-        <v>0.1884110798551137</v>
+        <v>0.1790777350707694</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>1.724307</v>
       </c>
       <c r="O6">
-        <v>0.0328617561197435</v>
+        <v>0.04269179184247177</v>
       </c>
       <c r="P6">
-        <v>0.03301161735036698</v>
+        <v>0.04325459680761149</v>
       </c>
       <c r="Q6">
         <v>0.5317939050493333</v>
@@ -824,10 +824,10 @@
         <v>4.786145145443999</v>
       </c>
       <c r="S6">
-        <v>0.005870140821199144</v>
+        <v>0.007319655771614583</v>
       </c>
       <c r="T6">
-        <v>0.00621975447274645</v>
+        <v>0.007745935227706396</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.775692</v>
       </c>
       <c r="I7">
-        <v>0.178631379278977</v>
+        <v>0.171453468119196</v>
       </c>
       <c r="J7">
-        <v>0.1884110798551137</v>
+        <v>0.1790777350707694</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2382025</v>
+        <v>0.525528</v>
       </c>
       <c r="N7">
-        <v>0.476405</v>
+        <v>1.051056</v>
       </c>
       <c r="O7">
-        <v>0.01361895380946642</v>
+        <v>0.03903434594313629</v>
       </c>
       <c r="P7">
-        <v>0.009120707370440172</v>
+        <v>0.02636595658558534</v>
       </c>
       <c r="Q7">
-        <v>0.2203922578766667</v>
+        <v>0.486234621792</v>
       </c>
       <c r="R7">
-        <v>1.32235354726</v>
+        <v>2.917407730752</v>
       </c>
       <c r="S7">
-        <v>0.002432772503321664</v>
+        <v>0.006692573987715184</v>
       </c>
       <c r="T7">
-        <v>0.001718442324707127</v>
+        <v>0.004721555788320858</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.820332</v>
+        <v>1.654700333333333</v>
       </c>
       <c r="H8">
-        <v>2.460996</v>
+        <v>4.964101</v>
       </c>
       <c r="I8">
-        <v>0.1583789231226106</v>
+        <v>0.3066306825627515</v>
       </c>
       <c r="J8">
-        <v>0.1670498433828809</v>
+        <v>0.3202660683327045</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.67754233333333</v>
+        <v>12.36292333333333</v>
       </c>
       <c r="N8">
-        <v>50.03262699999999</v>
+        <v>37.08877</v>
       </c>
       <c r="O8">
-        <v>0.9535192900707901</v>
+        <v>0.918273862214392</v>
       </c>
       <c r="P8">
-        <v>0.9578676752791928</v>
+        <v>0.9303794466068031</v>
       </c>
       <c r="Q8">
-        <v>13.681121657388</v>
+        <v>20.45693336064111</v>
       </c>
       <c r="R8">
-        <v>123.130094916492</v>
+        <v>184.11240024577</v>
       </c>
       <c r="S8">
-        <v>0.1510173583380479</v>
+        <v>0.281570941150333</v>
       </c>
       <c r="T8">
-        <v>0.1600116451369133</v>
+        <v>0.2979689674223182</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.820332</v>
+        <v>1.654700333333333</v>
       </c>
       <c r="H9">
-        <v>2.460996</v>
+        <v>4.964101</v>
       </c>
       <c r="I9">
-        <v>0.1583789231226106</v>
+        <v>0.3066306825627515</v>
       </c>
       <c r="J9">
-        <v>0.1670498433828809</v>
+        <v>0.3202660683327045</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>1.724307</v>
       </c>
       <c r="O9">
-        <v>0.0328617561197435</v>
+        <v>0.04269179184247177</v>
       </c>
       <c r="P9">
-        <v>0.03301161735036698</v>
+        <v>0.04325459680761149</v>
       </c>
       <c r="Q9">
-        <v>0.4715014033079999</v>
+        <v>0.9510704558896667</v>
       </c>
       <c r="R9">
-        <v>4.243512629771999</v>
+        <v>8.559634103007001</v>
       </c>
       <c r="S9">
-        <v>0.005204609546162834</v>
+        <v>0.01309061327248402</v>
       </c>
       <c r="T9">
-        <v>0.005514585508194396</v>
+        <v>0.01385297965689009</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.820332</v>
+        <v>1.654700333333333</v>
       </c>
       <c r="H10">
-        <v>2.460996</v>
+        <v>4.964101</v>
       </c>
       <c r="I10">
-        <v>0.1583789231226106</v>
+        <v>0.3066306825627515</v>
       </c>
       <c r="J10">
-        <v>0.1670498433828809</v>
+        <v>0.3202660683327045</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2382025</v>
+        <v>0.525528</v>
       </c>
       <c r="N10">
-        <v>0.476405</v>
+        <v>1.051056</v>
       </c>
       <c r="O10">
-        <v>0.01361895380946642</v>
+        <v>0.03903434594313629</v>
       </c>
       <c r="P10">
-        <v>0.009120707370440172</v>
+        <v>0.02636595658558534</v>
       </c>
       <c r="Q10">
-        <v>0.19540513323</v>
+        <v>0.8695913567760001</v>
       </c>
       <c r="R10">
-        <v>1.17243079938</v>
+        <v>5.217548140656</v>
       </c>
       <c r="S10">
-        <v>0.002156955238399866</v>
+        <v>0.01196912813993445</v>
       </c>
       <c r="T10">
-        <v>0.001523612737773118</v>
+        <v>0.008444121253496195</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8065525</v>
+        <v>0.6892575000000001</v>
       </c>
       <c r="H11">
-        <v>1.613105</v>
+        <v>1.378515</v>
       </c>
       <c r="I11">
-        <v>0.1557185583298584</v>
+        <v>0.1277255424616637</v>
       </c>
       <c r="J11">
-        <v>0.1094958860600107</v>
+        <v>0.0889368647389846</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.67754233333333</v>
+        <v>12.36292333333333</v>
       </c>
       <c r="N11">
-        <v>50.03262699999999</v>
+        <v>37.08877</v>
       </c>
       <c r="O11">
-        <v>0.9535192900707901</v>
+        <v>0.918273862214392</v>
       </c>
       <c r="P11">
-        <v>0.9578676752791928</v>
+        <v>0.9303794466068031</v>
       </c>
       <c r="Q11">
-        <v>13.45131346280583</v>
+        <v>8.521237629425</v>
       </c>
       <c r="R11">
-        <v>80.70788077683498</v>
+        <v>51.12742577655</v>
       </c>
       <c r="S11">
-        <v>0.1484806491895335</v>
+        <v>0.1172870271797002</v>
       </c>
       <c r="T11">
-        <v>0.1048825698329378</v>
+        <v>0.08274503099880058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8065525</v>
+        <v>0.6892575000000001</v>
       </c>
       <c r="H12">
-        <v>1.613105</v>
+        <v>1.378515</v>
       </c>
       <c r="I12">
-        <v>0.1557185583298584</v>
+        <v>0.1277255424616637</v>
       </c>
       <c r="J12">
-        <v>0.1094958860600107</v>
+        <v>0.0889368647389846</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>1.724307</v>
       </c>
       <c r="O12">
-        <v>0.0328617561197435</v>
+        <v>0.04269179184247177</v>
       </c>
       <c r="P12">
-        <v>0.03301161735036698</v>
+        <v>0.04325459680761149</v>
       </c>
       <c r="Q12">
-        <v>0.4635813738725</v>
+        <v>0.3961638440175</v>
       </c>
       <c r="R12">
-        <v>2.781488243235</v>
+        <v>2.376983064105</v>
       </c>
       <c r="S12">
-        <v>0.005117185287153859</v>
+        <v>0.005452832271740134</v>
       </c>
       <c r="T12">
-        <v>0.003614636292052455</v>
+        <v>0.003846928225617858</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8065525</v>
+        <v>0.6892575000000001</v>
       </c>
       <c r="H13">
-        <v>1.613105</v>
+        <v>1.378515</v>
       </c>
       <c r="I13">
-        <v>0.1557185583298584</v>
+        <v>0.1277255424616637</v>
       </c>
       <c r="J13">
-        <v>0.1094958860600107</v>
+        <v>0.0889368647389846</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2382025</v>
+        <v>0.525528</v>
       </c>
       <c r="N13">
-        <v>0.476405</v>
+        <v>1.051056</v>
       </c>
       <c r="O13">
-        <v>0.01361895380946642</v>
+        <v>0.03903434594313629</v>
       </c>
       <c r="P13">
-        <v>0.009120707370440172</v>
+        <v>0.02636595658558534</v>
       </c>
       <c r="Q13">
-        <v>0.19212282188125</v>
+        <v>0.3622241154600001</v>
       </c>
       <c r="R13">
-        <v>0.7684912875250001</v>
+        <v>1.44889646184</v>
       </c>
       <c r="S13">
-        <v>0.002120723853171043</v>
+        <v>0.004985683010223323</v>
       </c>
       <c r="T13">
-        <v>0.0009986799350204169</v>
+        <v>0.002344905514566144</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.40357</v>
+        <v>1.390322</v>
       </c>
       <c r="H14">
-        <v>4.210710000000001</v>
+        <v>4.170966</v>
       </c>
       <c r="I14">
-        <v>0.2709828522198361</v>
+        <v>0.2576390269911973</v>
       </c>
       <c r="J14">
-        <v>0.2858186059752761</v>
+        <v>0.2690958306386971</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.67754233333333</v>
+        <v>12.36292333333333</v>
       </c>
       <c r="N14">
-        <v>50.03262699999999</v>
+        <v>37.08877</v>
       </c>
       <c r="O14">
-        <v>0.9535192900707901</v>
+        <v>0.918273862214392</v>
       </c>
       <c r="P14">
-        <v>0.9578676752791928</v>
+        <v>0.9303794466068031</v>
       </c>
       <c r="Q14">
-        <v>23.40809809279667</v>
+        <v>17.18844429464666</v>
       </c>
       <c r="R14">
-        <v>210.67288283517</v>
+        <v>154.69599865182</v>
       </c>
       <c r="S14">
-        <v>0.258387376870016</v>
+        <v>0.2365831843723647</v>
       </c>
       <c r="T14">
-        <v>0.2737764036570773</v>
+        <v>0.250361229993829</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.40357</v>
+        <v>1.390322</v>
       </c>
       <c r="H15">
-        <v>4.210710000000001</v>
+        <v>4.170966</v>
       </c>
       <c r="I15">
-        <v>0.2709828522198361</v>
+        <v>0.2576390269911973</v>
       </c>
       <c r="J15">
-        <v>0.2858186059752761</v>
+        <v>0.2690958306386971</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>1.724307</v>
       </c>
       <c r="O15">
-        <v>0.0328617561197435</v>
+        <v>0.04269179184247177</v>
       </c>
       <c r="P15">
-        <v>0.03301161735036698</v>
+        <v>0.04325459680761149</v>
       </c>
       <c r="Q15">
-        <v>0.8067285253300001</v>
+        <v>0.799113985618</v>
       </c>
       <c r="R15">
-        <v>7.26055672797</v>
+        <v>7.192025870562</v>
       </c>
       <c r="S15">
-        <v>0.008904972402280747</v>
+        <v>0.01099907171080516</v>
       </c>
       <c r="T15">
-        <v>0.009435334452071127</v>
+        <v>0.01163963165688615</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.40357</v>
+        <v>1.390322</v>
       </c>
       <c r="H16">
-        <v>4.210710000000001</v>
+        <v>4.170966</v>
       </c>
       <c r="I16">
-        <v>0.2709828522198361</v>
+        <v>0.2576390269911973</v>
       </c>
       <c r="J16">
-        <v>0.2858186059752761</v>
+        <v>0.2690958306386971</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2382025</v>
+        <v>0.525528</v>
       </c>
       <c r="N16">
-        <v>0.476405</v>
+        <v>1.051056</v>
       </c>
       <c r="O16">
-        <v>0.01361895380946642</v>
+        <v>0.03903434594313629</v>
       </c>
       <c r="P16">
-        <v>0.009120707370440172</v>
+        <v>0.02636595658558534</v>
       </c>
       <c r="Q16">
-        <v>0.334333882925</v>
+        <v>0.730653140016</v>
       </c>
       <c r="R16">
-        <v>2.00600329755</v>
+        <v>4.383918840096</v>
       </c>
       <c r="S16">
-        <v>0.003690502947539412</v>
+        <v>0.01005677090802742</v>
       </c>
       <c r="T16">
-        <v>0.002606867866127636</v>
+        <v>0.007094968987981914</v>
       </c>
     </row>
   </sheetData>
